--- a/data/pca/factorExposure/factorExposure_2011-08-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02442652780621739</v>
+        <v>-0.0190376108465606</v>
       </c>
       <c r="C2">
-        <v>-0.01885599769569149</v>
+        <v>0.007136633633554612</v>
       </c>
       <c r="D2">
-        <v>-0.07137317130618125</v>
+        <v>-0.03734287615850362</v>
       </c>
       <c r="E2">
-        <v>0.02778436849229249</v>
+        <v>0.02098669820072186</v>
       </c>
       <c r="F2">
-        <v>-0.007554865872122751</v>
+        <v>-0.01898110167935708</v>
       </c>
       <c r="G2">
-        <v>0.05193415752196061</v>
+        <v>0.02565365102914714</v>
       </c>
       <c r="H2">
-        <v>0.02189177987640403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01148786398951821</v>
+      </c>
+      <c r="I2">
+        <v>0.01601788594245381</v>
+      </c>
+      <c r="J2">
+        <v>-0.07534779653740364</v>
+      </c>
+      <c r="K2">
+        <v>-0.03676002549973408</v>
+      </c>
+      <c r="L2">
+        <v>0.0319711542052328</v>
+      </c>
+      <c r="M2">
+        <v>0.08793434702252384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.06741267450775185</v>
+        <v>-0.0940209362554786</v>
       </c>
       <c r="C4">
-        <v>-0.07272842241594142</v>
+        <v>0.07406101168767076</v>
       </c>
       <c r="D4">
-        <v>-0.02257330196939517</v>
+        <v>-0.02239717642637734</v>
       </c>
       <c r="E4">
-        <v>0.02603987240471475</v>
+        <v>0.05990781421212637</v>
       </c>
       <c r="F4">
-        <v>0.04092721737026569</v>
+        <v>-0.06117801106307703</v>
       </c>
       <c r="G4">
-        <v>0.01517348180715433</v>
+        <v>0.02498283509262699</v>
       </c>
       <c r="H4">
-        <v>-0.02053042998971586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.09242650449340219</v>
+      </c>
+      <c r="I4">
+        <v>0.007177869389481646</v>
+      </c>
+      <c r="J4">
+        <v>0.04294335105626973</v>
+      </c>
+      <c r="K4">
+        <v>0.04723128260264713</v>
+      </c>
+      <c r="L4">
+        <v>0.0422813824039551</v>
+      </c>
+      <c r="M4">
+        <v>-0.009767791425799893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1300434003956271</v>
+        <v>-0.1312317737215912</v>
       </c>
       <c r="C6">
-        <v>-0.04988645060896117</v>
+        <v>0.04551283672900335</v>
       </c>
       <c r="D6">
-        <v>-0.07380403510057122</v>
+        <v>-0.03059651323282285</v>
       </c>
       <c r="E6">
-        <v>0.04833981217711655</v>
+        <v>0.001454079360042864</v>
       </c>
       <c r="F6">
-        <v>0.05062371815156914</v>
+        <v>-0.06593101843466385</v>
       </c>
       <c r="G6">
-        <v>-0.07084651211682323</v>
+        <v>-0.1549142399632601</v>
       </c>
       <c r="H6">
-        <v>0.112867240106483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1213543084049291</v>
+      </c>
+      <c r="I6">
+        <v>0.401752991019368</v>
+      </c>
+      <c r="J6">
+        <v>0.1787499172895819</v>
+      </c>
+      <c r="K6">
+        <v>0.06645211915057275</v>
+      </c>
+      <c r="L6">
+        <v>-0.1081922918387357</v>
+      </c>
+      <c r="M6">
+        <v>-0.06074356819530559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06886640944784132</v>
+        <v>-0.06611125903562691</v>
       </c>
       <c r="C7">
-        <v>-0.05662689399405926</v>
+        <v>0.07025757421722037</v>
       </c>
       <c r="D7">
-        <v>-0.05705371620886728</v>
+        <v>-0.03922158613179894</v>
       </c>
       <c r="E7">
-        <v>0.01038051721903894</v>
+        <v>0.01672969860746041</v>
       </c>
       <c r="F7">
-        <v>0.03946914321719231</v>
+        <v>-0.003034522485768644</v>
       </c>
       <c r="G7">
-        <v>-0.03553856689900114</v>
+        <v>-0.0003497319613579989</v>
       </c>
       <c r="H7">
-        <v>-0.002525388656810574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.04718648874490141</v>
+      </c>
+      <c r="I7">
+        <v>-0.07668428262336716</v>
+      </c>
+      <c r="J7">
+        <v>-0.007838256627672029</v>
+      </c>
+      <c r="K7">
+        <v>0.02262251726344982</v>
+      </c>
+      <c r="L7">
+        <v>0.04887636590640163</v>
+      </c>
+      <c r="M7">
+        <v>-0.05434181192883596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02226035466882503</v>
+        <v>-0.03488581882078787</v>
       </c>
       <c r="C8">
-        <v>-0.02953214774983333</v>
+        <v>0.01293327873909887</v>
       </c>
       <c r="D8">
-        <v>-0.04507646027330751</v>
+        <v>-0.0336626592787311</v>
       </c>
       <c r="E8">
-        <v>0.06666169785135331</v>
+        <v>0.06893004502603121</v>
       </c>
       <c r="F8">
-        <v>-0.0008134738289193179</v>
+        <v>-0.06699550024568081</v>
       </c>
       <c r="G8">
-        <v>-0.006537694838251747</v>
+        <v>0.002447721403541962</v>
       </c>
       <c r="H8">
-        <v>0.01739577635116496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.0864390866069867</v>
+      </c>
+      <c r="I8">
+        <v>-0.01314489074352482</v>
+      </c>
+      <c r="J8">
+        <v>0.05679883256022035</v>
+      </c>
+      <c r="K8">
+        <v>0.07033877963486454</v>
+      </c>
+      <c r="L8">
+        <v>-0.001537882622148413</v>
+      </c>
+      <c r="M8">
+        <v>0.05489932144011991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.0696049886857391</v>
+        <v>-0.08283224838465303</v>
       </c>
       <c r="C9">
-        <v>-0.08108683092710725</v>
+        <v>0.06782052891204444</v>
       </c>
       <c r="D9">
-        <v>-0.02641897193664862</v>
+        <v>-0.01789865918826459</v>
       </c>
       <c r="E9">
-        <v>0.02179613420460828</v>
+        <v>0.04289423255244177</v>
       </c>
       <c r="F9">
-        <v>0.02260628116439907</v>
+        <v>-0.06710830350854588</v>
       </c>
       <c r="G9">
-        <v>0.0204214265022098</v>
+        <v>0.02173386268594025</v>
       </c>
       <c r="H9">
-        <v>-0.01395681359752853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.1019944889050812</v>
+      </c>
+      <c r="I9">
+        <v>-0.00571063097304242</v>
+      </c>
+      <c r="J9">
+        <v>0.02092568361724263</v>
+      </c>
+      <c r="K9">
+        <v>0.03051026988114213</v>
+      </c>
+      <c r="L9">
+        <v>0.01123939451583861</v>
+      </c>
+      <c r="M9">
+        <v>-0.01411944832185723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.05531887452364016</v>
+        <v>-0.1081765583835975</v>
       </c>
       <c r="C10">
-        <v>0.1283205591702698</v>
+        <v>-0.1653283249814763</v>
       </c>
       <c r="D10">
-        <v>-0.06570703155010538</v>
+        <v>-0.03838837958210568</v>
       </c>
       <c r="E10">
-        <v>0.03440135763215369</v>
+        <v>0.04100051916586039</v>
       </c>
       <c r="F10">
-        <v>0.01834198540825837</v>
+        <v>0.03445439946142356</v>
       </c>
       <c r="G10">
-        <v>-0.05144465938956672</v>
+        <v>-0.02195705663159726</v>
       </c>
       <c r="H10">
-        <v>0.0467404866593901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.004017003131695534</v>
+      </c>
+      <c r="I10">
+        <v>-0.03447455562235796</v>
+      </c>
+      <c r="J10">
+        <v>-0.03894572156447065</v>
+      </c>
+      <c r="K10">
+        <v>0.003112988172877651</v>
+      </c>
+      <c r="L10">
+        <v>-0.00112144862727494</v>
+      </c>
+      <c r="M10">
+        <v>-0.08829043107536608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06585703984562467</v>
+        <v>-0.06712735312469384</v>
       </c>
       <c r="C11">
-        <v>-0.08478488043165054</v>
+        <v>0.06761235008071927</v>
       </c>
       <c r="D11">
-        <v>-0.03763792188887125</v>
+        <v>-0.02405449390909585</v>
       </c>
       <c r="E11">
-        <v>-0.003747524059627512</v>
+        <v>0.01699638920380933</v>
       </c>
       <c r="F11">
-        <v>-0.02825675618954819</v>
+        <v>-0.0835887007916114</v>
       </c>
       <c r="G11">
-        <v>0.02729526830419333</v>
+        <v>0.02111722446193466</v>
       </c>
       <c r="H11">
-        <v>-0.01369983871874259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.06929911988290156</v>
+      </c>
+      <c r="I11">
+        <v>-0.08948260609611709</v>
+      </c>
+      <c r="J11">
+        <v>-0.06293680977308144</v>
+      </c>
+      <c r="K11">
+        <v>-0.006275251412916063</v>
+      </c>
+      <c r="L11">
+        <v>-0.05030954537988333</v>
+      </c>
+      <c r="M11">
+        <v>-0.01868414708229655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.05984682465363356</v>
+        <v>-0.06719297811734724</v>
       </c>
       <c r="C12">
-        <v>-0.05306406050046693</v>
+        <v>0.05679755851041157</v>
       </c>
       <c r="D12">
-        <v>-0.02051927190117287</v>
+        <v>-0.009932117424778021</v>
       </c>
       <c r="E12">
-        <v>0.008615613200807599</v>
+        <v>0.02432381238414517</v>
       </c>
       <c r="F12">
-        <v>0.01280262187165138</v>
+        <v>-0.07914373247175682</v>
       </c>
       <c r="G12">
-        <v>-0.01106661449787216</v>
+        <v>0.01766427180192738</v>
       </c>
       <c r="H12">
-        <v>-0.0271545300569329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.07330693115592989</v>
+      </c>
+      <c r="I12">
+        <v>-0.08073514337086167</v>
+      </c>
+      <c r="J12">
+        <v>-0.0680694521807616</v>
+      </c>
+      <c r="K12">
+        <v>0.06211402931605728</v>
+      </c>
+      <c r="L12">
+        <v>-0.0535345362697986</v>
+      </c>
+      <c r="M12">
+        <v>0.007087759530516574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05844930975399623</v>
+        <v>-0.0540197671627561</v>
       </c>
       <c r="C13">
-        <v>-0.02952399475216173</v>
+        <v>0.03934406271086231</v>
       </c>
       <c r="D13">
-        <v>-0.02026028601410367</v>
+        <v>-0.007339444990007099</v>
       </c>
       <c r="E13">
-        <v>0.03974657375963659</v>
+        <v>0.04082447479687627</v>
       </c>
       <c r="F13">
-        <v>-0.009327585005924677</v>
+        <v>-0.0363295360127024</v>
       </c>
       <c r="G13">
-        <v>0.02665147550862628</v>
+        <v>0.01792664100350215</v>
       </c>
       <c r="H13">
-        <v>-0.03654324377849638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.03999583547460756</v>
+      </c>
+      <c r="I13">
+        <v>-0.02883895385837517</v>
+      </c>
+      <c r="J13">
+        <v>0.04068100097611558</v>
+      </c>
+      <c r="K13">
+        <v>0.04968329242603578</v>
+      </c>
+      <c r="L13">
+        <v>0.02397833881520747</v>
+      </c>
+      <c r="M13">
+        <v>-0.008030610709562987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.03789033707956408</v>
+        <v>-0.04654484201525975</v>
       </c>
       <c r="C14">
-        <v>-0.008078102916424256</v>
+        <v>0.02252234982140132</v>
       </c>
       <c r="D14">
-        <v>-0.00873377374870392</v>
+        <v>-0.01235874732599748</v>
       </c>
       <c r="E14">
-        <v>-0.002351350084838429</v>
+        <v>0.0106243962582622</v>
       </c>
       <c r="F14">
-        <v>0.03398125331912579</v>
+        <v>-0.04554159777067071</v>
       </c>
       <c r="G14">
-        <v>0.001937541687563131</v>
+        <v>0.04566109843231666</v>
       </c>
       <c r="H14">
-        <v>0.04767163575448214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.07338575035574162</v>
+      </c>
+      <c r="I14">
+        <v>-0.005019296586610062</v>
+      </c>
+      <c r="J14">
+        <v>0.05050220517222141</v>
+      </c>
+      <c r="K14">
+        <v>0.01394047591540849</v>
+      </c>
+      <c r="L14">
+        <v>0.01666518254235901</v>
+      </c>
+      <c r="M14">
+        <v>-0.05089519748261705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03639611980852361</v>
+        <v>-0.03439042299253299</v>
       </c>
       <c r="C15">
-        <v>0.003959031781387947</v>
+        <v>0.01319380976195432</v>
       </c>
       <c r="D15">
-        <v>0.004373969411645026</v>
+        <v>0.01190841566343193</v>
       </c>
       <c r="E15">
-        <v>0.02961405027222715</v>
+        <v>0.01550504996174262</v>
       </c>
       <c r="F15">
-        <v>0.02426883077593925</v>
+        <v>-0.01826186486597901</v>
       </c>
       <c r="G15">
-        <v>0.001536779452143383</v>
+        <v>-0.00110986918943551</v>
       </c>
       <c r="H15">
-        <v>-0.01399491323469692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.0386569370734297</v>
+      </c>
+      <c r="I15">
+        <v>-0.006337623269608307</v>
+      </c>
+      <c r="J15">
+        <v>0.05910668587792188</v>
+      </c>
+      <c r="K15">
+        <v>0.02046535469452359</v>
+      </c>
+      <c r="L15">
+        <v>0.01827184736858281</v>
+      </c>
+      <c r="M15">
+        <v>-0.02410526143122731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.04800370607260745</v>
+        <v>-0.06764264040356413</v>
       </c>
       <c r="C16">
-        <v>-0.0756863258764776</v>
+        <v>0.0727640455823426</v>
       </c>
       <c r="D16">
-        <v>-0.01677686913599964</v>
+        <v>-0.01400985696626682</v>
       </c>
       <c r="E16">
-        <v>0.01184498277948364</v>
+        <v>0.03113644493186726</v>
       </c>
       <c r="F16">
-        <v>0.02097708246242561</v>
+        <v>-0.063554213722417</v>
       </c>
       <c r="G16">
-        <v>0.02353710039205045</v>
+        <v>0.020647188109174</v>
       </c>
       <c r="H16">
-        <v>-0.006171601879789563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.08394794935017862</v>
+      </c>
+      <c r="I16">
+        <v>-0.08263237297769055</v>
+      </c>
+      <c r="J16">
+        <v>-0.04602732675897895</v>
+      </c>
+      <c r="K16">
+        <v>0.009970774810693373</v>
+      </c>
+      <c r="L16">
+        <v>-0.03193054290398176</v>
+      </c>
+      <c r="M16">
+        <v>0.004632857824913516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.0411135839304524</v>
+        <v>-0.04602491917327513</v>
       </c>
       <c r="C20">
-        <v>-0.04901862738754837</v>
+        <v>0.03861326378281476</v>
       </c>
       <c r="D20">
-        <v>-0.02669902597346052</v>
+        <v>-0.02450785431968885</v>
       </c>
       <c r="E20">
-        <v>0.01738568119959918</v>
+        <v>0.01036513121613247</v>
       </c>
       <c r="F20">
-        <v>0.0152578716648913</v>
+        <v>-0.05634156892727104</v>
       </c>
       <c r="G20">
-        <v>0.02369084623935936</v>
+        <v>0.03356428875586883</v>
       </c>
       <c r="H20">
-        <v>-0.03064246190764188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.09283901863875565</v>
+      </c>
+      <c r="I20">
+        <v>-0.04646218258692486</v>
+      </c>
+      <c r="J20">
+        <v>-0.02490100727136186</v>
+      </c>
+      <c r="K20">
+        <v>0.06815302540938233</v>
+      </c>
+      <c r="L20">
+        <v>0.00181662160525935</v>
+      </c>
+      <c r="M20">
+        <v>-0.02880199032682123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.01654401317297161</v>
+        <v>-0.02338615775616988</v>
       </c>
       <c r="C21">
-        <v>-0.02418745350161793</v>
+        <v>0.01703356511014935</v>
       </c>
       <c r="D21">
-        <v>-0.001861171973206707</v>
+        <v>0.003763659600352567</v>
       </c>
       <c r="E21">
-        <v>0.08665517276129818</v>
+        <v>0.04683835877898335</v>
       </c>
       <c r="F21">
-        <v>-0.001875876581547118</v>
+        <v>-0.02708070089773647</v>
       </c>
       <c r="G21">
-        <v>-0.0868181106907284</v>
+        <v>-0.07991515755566152</v>
       </c>
       <c r="H21">
-        <v>-0.02185581076576842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.04941863299361254</v>
+      </c>
+      <c r="I21">
+        <v>-0.01431387055791358</v>
+      </c>
+      <c r="J21">
+        <v>0.07068383394650961</v>
+      </c>
+      <c r="K21">
+        <v>0.0494611826582626</v>
+      </c>
+      <c r="L21">
+        <v>-0.01680864940844326</v>
+      </c>
+      <c r="M21">
+        <v>-0.1375962954784194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.04163981533722377</v>
+        <v>-0.05726373916266622</v>
       </c>
       <c r="C22">
-        <v>-0.1095753904569125</v>
+        <v>0.0804316213043499</v>
       </c>
       <c r="D22">
-        <v>0.07580028192563087</v>
+        <v>0.2227258343420301</v>
       </c>
       <c r="E22">
-        <v>0.4022875830171794</v>
+        <v>0.5385405716280413</v>
       </c>
       <c r="F22">
-        <v>0.1948782002085812</v>
+        <v>0.2957253738463722</v>
       </c>
       <c r="G22">
-        <v>0.02286097349229551</v>
+        <v>-0.02028877858453218</v>
       </c>
       <c r="H22">
-        <v>-0.3150094523465004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1248035415576051</v>
+      </c>
+      <c r="I22">
+        <v>0.09003864500860527</v>
+      </c>
+      <c r="J22">
+        <v>-0.03036645982993153</v>
+      </c>
+      <c r="K22">
+        <v>-0.001009620566560474</v>
+      </c>
+      <c r="L22">
+        <v>0.1014022880689672</v>
+      </c>
+      <c r="M22">
+        <v>-0.03293166518678112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.04252601582316486</v>
+        <v>-0.0580121404815414</v>
       </c>
       <c r="C23">
-        <v>-0.1085358045011387</v>
+        <v>0.08068834250681763</v>
       </c>
       <c r="D23">
-        <v>0.07498840403297902</v>
+        <v>0.2229884458069982</v>
       </c>
       <c r="E23">
-        <v>0.4037570652244502</v>
+        <v>0.5417538247409397</v>
       </c>
       <c r="F23">
-        <v>0.1927703549803784</v>
+        <v>0.2916040613930423</v>
       </c>
       <c r="G23">
-        <v>0.02163307666680835</v>
+        <v>-0.01965249317589549</v>
       </c>
       <c r="H23">
-        <v>-0.3112446402721724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1241679213586465</v>
+      </c>
+      <c r="I23">
+        <v>0.09507491365955298</v>
+      </c>
+      <c r="J23">
+        <v>-0.02914800918313655</v>
+      </c>
+      <c r="K23">
+        <v>-0.002539916372859099</v>
+      </c>
+      <c r="L23">
+        <v>0.09940365149585095</v>
+      </c>
+      <c r="M23">
+        <v>-0.03039859084476766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07140546387187831</v>
+        <v>-0.07467558491911816</v>
       </c>
       <c r="C24">
-        <v>-0.07668054086697013</v>
+        <v>0.07129192074247553</v>
       </c>
       <c r="D24">
-        <v>-0.03799354984765699</v>
+        <v>-0.01474337923282129</v>
       </c>
       <c r="E24">
-        <v>0.03361350615155651</v>
+        <v>0.03805667480400593</v>
       </c>
       <c r="F24">
-        <v>-0.01350669800636974</v>
+        <v>-0.08069289080169738</v>
       </c>
       <c r="G24">
-        <v>0.01278733371986414</v>
+        <v>0.01479780766967792</v>
       </c>
       <c r="H24">
-        <v>0.0009972489842131772</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.07733721458431862</v>
+      </c>
+      <c r="I24">
+        <v>-0.0582704024823732</v>
+      </c>
+      <c r="J24">
+        <v>-0.05699175493987832</v>
+      </c>
+      <c r="K24">
+        <v>0.02011193497600775</v>
+      </c>
+      <c r="L24">
+        <v>-0.04165158991967382</v>
+      </c>
+      <c r="M24">
+        <v>-0.02626006730094925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06534667383635716</v>
+        <v>-0.07155927547254037</v>
       </c>
       <c r="C25">
-        <v>-0.04762483437208711</v>
+        <v>0.04672128821339246</v>
       </c>
       <c r="D25">
-        <v>-0.04480343360159331</v>
+        <v>-0.02264176574069409</v>
       </c>
       <c r="E25">
-        <v>0.04004774563773387</v>
+        <v>0.03380807508805821</v>
       </c>
       <c r="F25">
-        <v>0.008626544436863745</v>
+        <v>-0.07731209913737871</v>
       </c>
       <c r="G25">
-        <v>0.03427253637674678</v>
+        <v>0.03726471668577051</v>
       </c>
       <c r="H25">
-        <v>0.01379248396252632</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09409915346113241</v>
+      </c>
+      <c r="I25">
+        <v>-0.05548387152309236</v>
+      </c>
+      <c r="J25">
+        <v>-0.08076465163403528</v>
+      </c>
+      <c r="K25">
+        <v>2.531298370557963e-05</v>
+      </c>
+      <c r="L25">
+        <v>-0.04753958052732615</v>
+      </c>
+      <c r="M25">
+        <v>0.001677300481033975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.03939312009276108</v>
+        <v>-0.03900615786719322</v>
       </c>
       <c r="C26">
-        <v>-0.02486718611752453</v>
+        <v>0.02327276673516596</v>
       </c>
       <c r="D26">
-        <v>-0.03564161498334124</v>
+        <v>0.005317566624303228</v>
       </c>
       <c r="E26">
-        <v>-0.002892059304316233</v>
+        <v>0.02595933092357243</v>
       </c>
       <c r="F26">
-        <v>0.03330761855290523</v>
+        <v>-0.02542735457555326</v>
       </c>
       <c r="G26">
-        <v>-0.006315915492001944</v>
+        <v>0.009724076971534251</v>
       </c>
       <c r="H26">
-        <v>-0.02685739408904106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.04737921294929256</v>
+      </c>
+      <c r="I26">
+        <v>-0.04102050894990178</v>
+      </c>
+      <c r="J26">
+        <v>0.1027592216784665</v>
+      </c>
+      <c r="K26">
+        <v>0.03534238125968535</v>
+      </c>
+      <c r="L26">
+        <v>0.03915924350707463</v>
+      </c>
+      <c r="M26">
+        <v>-0.05469159151262059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1116570604216526</v>
+        <v>-0.1365594514600275</v>
       </c>
       <c r="C28">
-        <v>0.2887919136174161</v>
+        <v>-0.2889266436771672</v>
       </c>
       <c r="D28">
-        <v>-0.0765207139207776</v>
+        <v>-0.02373468169959244</v>
       </c>
       <c r="E28">
-        <v>0.01524208656369563</v>
+        <v>0.03271036406965107</v>
       </c>
       <c r="F28">
-        <v>0.03913343528194012</v>
+        <v>0.0101444258878259</v>
       </c>
       <c r="G28">
-        <v>-0.06417648048177828</v>
+        <v>-0.03119276008574751</v>
       </c>
       <c r="H28">
-        <v>-0.01166606180363796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01172272932430973</v>
+      </c>
+      <c r="I28">
+        <v>-0.01279864375463753</v>
+      </c>
+      <c r="J28">
+        <v>0.05170425301262826</v>
+      </c>
+      <c r="K28">
+        <v>-0.0007224820220042813</v>
+      </c>
+      <c r="L28">
+        <v>0.01865874309980874</v>
+      </c>
+      <c r="M28">
+        <v>0.03162765697486983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.04717624430567957</v>
+        <v>-0.04580765020386941</v>
       </c>
       <c r="C29">
-        <v>-0.006517989821151796</v>
+        <v>0.02116152623825941</v>
       </c>
       <c r="D29">
-        <v>-0.01106375668815525</v>
+        <v>-0.0123077916329586</v>
       </c>
       <c r="E29">
-        <v>0.0275664651498313</v>
+        <v>0.02306565649156215</v>
       </c>
       <c r="F29">
-        <v>0.03627847797099933</v>
+        <v>-0.03766817715775666</v>
       </c>
       <c r="G29">
-        <v>0.01579029667261761</v>
+        <v>0.04815498695658082</v>
       </c>
       <c r="H29">
-        <v>0.01376907254292549</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.06154475230851715</v>
+      </c>
+      <c r="I29">
+        <v>-0.001276921269955158</v>
+      </c>
+      <c r="J29">
+        <v>0.02590605626458727</v>
+      </c>
+      <c r="K29">
+        <v>0.007502758761749352</v>
+      </c>
+      <c r="L29">
+        <v>0.02321927759549392</v>
+      </c>
+      <c r="M29">
+        <v>-0.03169558443582876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.128473641002774</v>
+        <v>-0.1051718107215831</v>
       </c>
       <c r="C30">
-        <v>-0.09794919659400256</v>
+        <v>0.07141838492009667</v>
       </c>
       <c r="D30">
-        <v>-0.07234022091195405</v>
+        <v>-0.03090127729505933</v>
       </c>
       <c r="E30">
-        <v>0.03707281857386303</v>
+        <v>0.0893045505857951</v>
       </c>
       <c r="F30">
-        <v>0.06294012192089196</v>
+        <v>-0.1297818944534513</v>
       </c>
       <c r="G30">
-        <v>-0.002848489593881707</v>
+        <v>-0.03430017524441398</v>
       </c>
       <c r="H30">
-        <v>-0.004752017708848963</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1960404266840994</v>
+      </c>
+      <c r="I30">
+        <v>-0.02212731078137064</v>
+      </c>
+      <c r="J30">
+        <v>-0.06508373101571793</v>
+      </c>
+      <c r="K30">
+        <v>0.2094876446271773</v>
+      </c>
+      <c r="L30">
+        <v>0.3639756868282758</v>
+      </c>
+      <c r="M30">
+        <v>-0.05274163044316214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04786285408929905</v>
+        <v>-0.03558480168360655</v>
       </c>
       <c r="C31">
-        <v>-0.02181869396864168</v>
+        <v>0.04214230574139403</v>
       </c>
       <c r="D31">
-        <v>0.002952775215013998</v>
+        <v>0.01129300551215642</v>
       </c>
       <c r="E31">
-        <v>-0.01023064616431213</v>
+        <v>0.003859282877960218</v>
       </c>
       <c r="F31">
-        <v>0.02038267193112016</v>
+        <v>-0.006029500414200437</v>
       </c>
       <c r="G31">
-        <v>0.0249495682951989</v>
+        <v>0.05411643087377891</v>
       </c>
       <c r="H31">
-        <v>-0.03575289026215712</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03483746513536261</v>
+      </c>
+      <c r="I31">
+        <v>-0.006526694021223146</v>
+      </c>
+      <c r="J31">
+        <v>0.006108445329200473</v>
+      </c>
+      <c r="K31">
+        <v>0.03120620023633264</v>
+      </c>
+      <c r="L31">
+        <v>-0.01854417725099688</v>
+      </c>
+      <c r="M31">
+        <v>0.01555662209811267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.03010120579240772</v>
+        <v>-0.04827024723144659</v>
       </c>
       <c r="C32">
-        <v>-0.02160708239372657</v>
+        <v>0.00435532164555208</v>
       </c>
       <c r="D32">
-        <v>0.02097122222477155</v>
+        <v>0.01784771020378026</v>
       </c>
       <c r="E32">
-        <v>0.07761238768334461</v>
+        <v>0.06279766355276205</v>
       </c>
       <c r="F32">
-        <v>0.02070046021693607</v>
+        <v>-0.01287843864375298</v>
       </c>
       <c r="G32">
-        <v>0.01314859552302652</v>
+        <v>0.004197685323192</v>
       </c>
       <c r="H32">
-        <v>-0.09893687150632069</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.01058414199198332</v>
+      </c>
+      <c r="I32">
+        <v>-0.04822513525016506</v>
+      </c>
+      <c r="J32">
+        <v>0.08417052181612075</v>
+      </c>
+      <c r="K32">
+        <v>0.03078595688641284</v>
+      </c>
+      <c r="L32">
+        <v>0.07866757549527385</v>
+      </c>
+      <c r="M32">
+        <v>0.1011863414317637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.09597723536900449</v>
+        <v>-0.09998127260384998</v>
       </c>
       <c r="C33">
-        <v>-0.05992939127290723</v>
+        <v>0.06688899828545873</v>
       </c>
       <c r="D33">
-        <v>-0.01639757997553839</v>
+        <v>0.02036881604933465</v>
       </c>
       <c r="E33">
-        <v>-0.004316108305994164</v>
+        <v>0.01796369020066234</v>
       </c>
       <c r="F33">
-        <v>0.01656073191819415</v>
+        <v>-0.04754803242366812</v>
       </c>
       <c r="G33">
-        <v>0.03630912423661573</v>
+        <v>0.05215802477083889</v>
       </c>
       <c r="H33">
-        <v>-0.0347549351409275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.06087158669703292</v>
+      </c>
+      <c r="I33">
+        <v>-0.007882213484714172</v>
+      </c>
+      <c r="J33">
+        <v>0.03158405567914078</v>
+      </c>
+      <c r="K33">
+        <v>0.04196132792263936</v>
+      </c>
+      <c r="L33">
+        <v>-0.007106601352087212</v>
+      </c>
+      <c r="M33">
+        <v>-0.01605658397210139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05528559168184458</v>
+        <v>-0.0627968340428298</v>
       </c>
       <c r="C34">
-        <v>-0.07645274853840485</v>
+        <v>0.06016003569465647</v>
       </c>
       <c r="D34">
-        <v>-0.02142179589235752</v>
+        <v>-0.01216786127536496</v>
       </c>
       <c r="E34">
-        <v>0.04511875719244563</v>
+        <v>0.02295178603661403</v>
       </c>
       <c r="F34">
-        <v>0.005716093887583765</v>
+        <v>-0.07072141797536097</v>
       </c>
       <c r="G34">
-        <v>0.01889680288301135</v>
+        <v>0.03370317076689441</v>
       </c>
       <c r="H34">
-        <v>0.001161176717925534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.07695896811254517</v>
+      </c>
+      <c r="I34">
+        <v>-0.05239093883099588</v>
+      </c>
+      <c r="J34">
+        <v>-0.05554072049790856</v>
+      </c>
+      <c r="K34">
+        <v>0.01142953091690978</v>
+      </c>
+      <c r="L34">
+        <v>-0.05510085990262467</v>
+      </c>
+      <c r="M34">
+        <v>-0.01284938563475384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.03595707380225001</v>
+        <v>-0.03102615631570351</v>
       </c>
       <c r="C35">
-        <v>-0.01558105193535761</v>
+        <v>0.02218493671884644</v>
       </c>
       <c r="D35">
-        <v>5.892406785237383e-05</v>
+        <v>0.003223185441089397</v>
       </c>
       <c r="E35">
-        <v>0.007546777986127079</v>
+        <v>-0.0001098393438736315</v>
       </c>
       <c r="F35">
-        <v>0.03612847822040137</v>
+        <v>-0.005019651661111808</v>
       </c>
       <c r="G35">
-        <v>0.03157219852176148</v>
+        <v>0.02585468188216183</v>
       </c>
       <c r="H35">
-        <v>-0.04860138443317462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.06408037980613068</v>
+      </c>
+      <c r="I35">
+        <v>-0.03997405380051115</v>
+      </c>
+      <c r="J35">
+        <v>-0.02105032142583516</v>
+      </c>
+      <c r="K35">
+        <v>0.02526788591285195</v>
+      </c>
+      <c r="L35">
+        <v>0.01830431049198334</v>
+      </c>
+      <c r="M35">
+        <v>-0.01635187928831798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02875498707815668</v>
+        <v>-0.02936845728065933</v>
       </c>
       <c r="C36">
-        <v>-0.01948557467973975</v>
+        <v>0.01648189017354235</v>
       </c>
       <c r="D36">
-        <v>-0.02919592675355908</v>
+        <v>-0.006611762131514041</v>
       </c>
       <c r="E36">
-        <v>0.02780728570767714</v>
+        <v>0.03203766469625301</v>
       </c>
       <c r="F36">
-        <v>0.01239923875279539</v>
+        <v>-0.03786625633652628</v>
       </c>
       <c r="G36">
-        <v>0.01816014522645577</v>
+        <v>0.02261194854866554</v>
       </c>
       <c r="H36">
-        <v>-0.009516450689794098</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.05732536183769925</v>
+      </c>
+      <c r="I36">
+        <v>-0.01307653457227693</v>
+      </c>
+      <c r="J36">
+        <v>0.01466009604888332</v>
+      </c>
+      <c r="K36">
+        <v>0.03217967460022803</v>
+      </c>
+      <c r="L36">
+        <v>-0.01093369709647875</v>
+      </c>
+      <c r="M36">
+        <v>-0.04159394538702446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04091005421968558</v>
+        <v>-0.03630044401566663</v>
       </c>
       <c r="C38">
-        <v>-0.01803228701028802</v>
+        <v>0.04460361103731156</v>
       </c>
       <c r="D38">
-        <v>0.02597703221846862</v>
+        <v>0.005859266319054935</v>
       </c>
       <c r="E38">
-        <v>0.0809328666783576</v>
+        <v>0.02432720781856819</v>
       </c>
       <c r="F38">
-        <v>0.008686426994535534</v>
+        <v>0.02291062778764645</v>
       </c>
       <c r="G38">
-        <v>-0.01387529256765301</v>
+        <v>0.004244305643355691</v>
       </c>
       <c r="H38">
-        <v>-0.01357095296141172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.09100521008718823</v>
+      </c>
+      <c r="I38">
+        <v>0.006619742909143918</v>
+      </c>
+      <c r="J38">
+        <v>0.06996949848486037</v>
+      </c>
+      <c r="K38">
+        <v>-0.07020178897638375</v>
+      </c>
+      <c r="L38">
+        <v>0.113555075796574</v>
+      </c>
+      <c r="M38">
+        <v>-0.1981739733346861</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.0930448297704804</v>
+        <v>-0.09335918944263573</v>
       </c>
       <c r="C39">
-        <v>-0.08815381688560066</v>
+        <v>0.0738265904597389</v>
       </c>
       <c r="D39">
-        <v>-0.01044627524048293</v>
+        <v>-0.00547582779963081</v>
       </c>
       <c r="E39">
-        <v>0.03191150774980157</v>
+        <v>0.03769001963391591</v>
       </c>
       <c r="F39">
-        <v>-0.001844436717202212</v>
+        <v>-0.07245723267531143</v>
       </c>
       <c r="G39">
-        <v>0.004779551634012902</v>
+        <v>0.01892187323144836</v>
       </c>
       <c r="H39">
-        <v>-0.00775429396198514</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.08732387626823683</v>
+      </c>
+      <c r="I39">
+        <v>-0.1378510753384653</v>
+      </c>
+      <c r="J39">
+        <v>-0.1140149010307358</v>
+      </c>
+      <c r="K39">
+        <v>0.05396411114991982</v>
+      </c>
+      <c r="L39">
+        <v>0.07822126985834803</v>
+      </c>
+      <c r="M39">
+        <v>0.02810190353250007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.07281002557858594</v>
+        <v>-0.04069065119378149</v>
       </c>
       <c r="C40">
-        <v>-0.05262173897920273</v>
+        <v>0.06481240761255858</v>
       </c>
       <c r="D40">
-        <v>-0.006254596393103364</v>
+        <v>0.03843330684863844</v>
       </c>
       <c r="E40">
-        <v>0.2063582869833303</v>
+        <v>0.08669363906521714</v>
       </c>
       <c r="F40">
-        <v>0.06890767217423294</v>
+        <v>-0.1183647115799576</v>
       </c>
       <c r="G40">
-        <v>0.01906396477737354</v>
+        <v>-0.05811797435911593</v>
       </c>
       <c r="H40">
-        <v>-0.03955483985528229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.03638195125270262</v>
+      </c>
+      <c r="I40">
+        <v>-0.1043210804038071</v>
+      </c>
+      <c r="J40">
+        <v>-0.02843936782969968</v>
+      </c>
+      <c r="K40">
+        <v>0.01972536973209408</v>
+      </c>
+      <c r="L40">
+        <v>0.1089755875679154</v>
+      </c>
+      <c r="M40">
+        <v>-0.1110400548700189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04427700180664024</v>
+        <v>-0.03702371634306593</v>
       </c>
       <c r="C41">
-        <v>-0.04450731716868529</v>
+        <v>0.03490589521829471</v>
       </c>
       <c r="D41">
-        <v>0.006614780546728851</v>
+        <v>-0.008033644766201841</v>
       </c>
       <c r="E41">
-        <v>0.00232176282093606</v>
+        <v>-0.02504985549311158</v>
       </c>
       <c r="F41">
-        <v>0.01042480257898995</v>
+        <v>-0.03235411807824739</v>
       </c>
       <c r="G41">
-        <v>0.01403634301419396</v>
+        <v>0.02806800456179954</v>
       </c>
       <c r="H41">
-        <v>-0.01905930532316248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.005173632249948117</v>
+      </c>
+      <c r="I41">
+        <v>-0.03897737440501042</v>
+      </c>
+      <c r="J41">
+        <v>0.006506813777604353</v>
+      </c>
+      <c r="K41">
+        <v>0.01830892903254889</v>
+      </c>
+      <c r="L41">
+        <v>0.003479891612448184</v>
+      </c>
+      <c r="M41">
+        <v>-0.01314291669482246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05588566135702036</v>
+        <v>-0.05365534738341494</v>
       </c>
       <c r="C43">
-        <v>-0.03799053160401646</v>
+        <v>0.04967009866317442</v>
       </c>
       <c r="D43">
-        <v>-0.01661247384110051</v>
+        <v>-0.0092384541193281</v>
       </c>
       <c r="E43">
-        <v>0.01080830264897233</v>
+        <v>0.01628668513762108</v>
       </c>
       <c r="F43">
-        <v>-0.0003051539720611053</v>
+        <v>-0.01554766926591833</v>
       </c>
       <c r="G43">
-        <v>-0.001616590190931498</v>
+        <v>0.05247189494274746</v>
       </c>
       <c r="H43">
-        <v>-0.06593180830550556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.0003684011261861812</v>
+      </c>
+      <c r="I43">
+        <v>-0.02850879376380145</v>
+      </c>
+      <c r="J43">
+        <v>-0.002132151127119478</v>
+      </c>
+      <c r="K43">
+        <v>0.0217472813454283</v>
+      </c>
+      <c r="L43">
+        <v>-0.03127755917467854</v>
+      </c>
+      <c r="M43">
+        <v>-0.01944660268457455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05382603302168965</v>
+        <v>-0.08012108014784218</v>
       </c>
       <c r="C44">
-        <v>-0.03905851354377064</v>
+        <v>0.0573444877274993</v>
       </c>
       <c r="D44">
-        <v>-0.07776278954251047</v>
+        <v>-0.05950292906113613</v>
       </c>
       <c r="E44">
-        <v>0.1350801351242708</v>
+        <v>0.1238942020410184</v>
       </c>
       <c r="F44">
-        <v>0.01252207534616707</v>
+        <v>-0.1020481818195568</v>
       </c>
       <c r="G44">
-        <v>0.00637554000524535</v>
+        <v>0.05064235633483344</v>
       </c>
       <c r="H44">
-        <v>0.03956331073440105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.09774935112313418</v>
+      </c>
+      <c r="I44">
+        <v>-0.06166570077110631</v>
+      </c>
+      <c r="J44">
+        <v>-0.03609320307689069</v>
+      </c>
+      <c r="K44">
+        <v>-0.01267289565566416</v>
+      </c>
+      <c r="L44">
+        <v>0.00530991626953274</v>
+      </c>
+      <c r="M44">
+        <v>-8.999367879862006e-05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,166 +2548,271 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.01844710364208954</v>
+        <v>-0.04221462870685661</v>
       </c>
       <c r="C46">
-        <v>-0.026504972072737</v>
+        <v>0.03916493193844171</v>
       </c>
       <c r="D46">
-        <v>-0.01618730067878704</v>
+        <v>-0.008750364771494398</v>
       </c>
       <c r="E46">
-        <v>0.05259617629470217</v>
+        <v>0.03826159274660171</v>
       </c>
       <c r="F46">
-        <v>0.0206361970518002</v>
+        <v>-0.01647854503923845</v>
       </c>
       <c r="G46">
-        <v>0.006170388332963465</v>
+        <v>0.02540341715566455</v>
       </c>
       <c r="H46">
-        <v>0.01217862133766275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.0628081527731815</v>
+      </c>
+      <c r="I46">
+        <v>-0.00756848125435705</v>
+      </c>
+      <c r="J46">
+        <v>0.06787080989724262</v>
+      </c>
+      <c r="K46">
+        <v>0.01225674974305718</v>
+      </c>
+      <c r="L46">
+        <v>0.01515923682694455</v>
+      </c>
+      <c r="M46">
+        <v>-0.05622308070024583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02885982609016923</v>
+        <v>-0.04379610351993435</v>
       </c>
       <c r="C47">
-        <v>0.01045548265658882</v>
+        <v>0.02277395001142096</v>
       </c>
       <c r="D47">
-        <v>-0.004314569136859977</v>
+        <v>0.01315717329095924</v>
       </c>
       <c r="E47">
-        <v>0.05997579313557683</v>
+        <v>0.02884686146333918</v>
       </c>
       <c r="F47">
-        <v>0.03175018730976989</v>
+        <v>-0.01124430683628533</v>
       </c>
       <c r="G47">
-        <v>0.02775776607108276</v>
+        <v>0.03704308388517729</v>
       </c>
       <c r="H47">
-        <v>-0.001977068582209597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.02911652608894787</v>
+      </c>
+      <c r="I47">
+        <v>0.02525470821150578</v>
+      </c>
+      <c r="J47">
+        <v>-0.004847908777536846</v>
+      </c>
+      <c r="K47">
+        <v>0.02716629404125087</v>
+      </c>
+      <c r="L47">
+        <v>-0.03543959736475936</v>
+      </c>
+      <c r="M47">
+        <v>-0.05174338632190993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.0384204154950749</v>
+        <v>-0.04200788205591098</v>
       </c>
       <c r="C48">
-        <v>-0.02976776472620082</v>
+        <v>0.01856208044651479</v>
       </c>
       <c r="D48">
-        <v>-0.01726269396116352</v>
+        <v>0.01143138086893324</v>
       </c>
       <c r="E48">
-        <v>0.05047394041654631</v>
+        <v>0.03733769697653211</v>
       </c>
       <c r="F48">
-        <v>0.03589507716329428</v>
+        <v>-0.01918747244344736</v>
       </c>
       <c r="G48">
-        <v>0.01428957941275153</v>
+        <v>-0.004907604338075722</v>
       </c>
       <c r="H48">
-        <v>-0.04610981663989796</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.06409600191149632</v>
+      </c>
+      <c r="I48">
+        <v>-0.0219586160333567</v>
+      </c>
+      <c r="J48">
+        <v>-0.005741021964976418</v>
+      </c>
+      <c r="K48">
+        <v>0.05840161262631026</v>
+      </c>
+      <c r="L48">
+        <v>0.0004768292860828616</v>
+      </c>
+      <c r="M48">
+        <v>-0.01506305397343381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1876711979834499</v>
+        <v>-0.2255392345323758</v>
       </c>
       <c r="C49">
-        <v>-0.1206677674487086</v>
+        <v>0.08195925593933127</v>
       </c>
       <c r="D49">
-        <v>-0.0607737502155579</v>
+        <v>-0.0749676910928072</v>
       </c>
       <c r="E49">
-        <v>-0.1210236510940663</v>
+        <v>-0.1181803312583714</v>
       </c>
       <c r="F49">
-        <v>0.04765007282385363</v>
+        <v>0.1891357107600928</v>
       </c>
       <c r="G49">
-        <v>-0.166078685523334</v>
+        <v>-0.1946505953684688</v>
       </c>
       <c r="H49">
-        <v>0.05642743097010175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.01182166192223522</v>
+      </c>
+      <c r="I49">
+        <v>-0.09645104283373689</v>
+      </c>
+      <c r="J49">
+        <v>-0.08178499624188346</v>
+      </c>
+      <c r="K49">
+        <v>-0.1408237151317384</v>
+      </c>
+      <c r="L49">
+        <v>-0.05465601712646718</v>
+      </c>
+      <c r="M49">
+        <v>-0.162707422966662</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05082313836678207</v>
+        <v>-0.04306895108145624</v>
       </c>
       <c r="C50">
-        <v>-0.02703924104511634</v>
+        <v>0.04066219074470667</v>
       </c>
       <c r="D50">
-        <v>0.002051888126376369</v>
+        <v>0.01431656539672842</v>
       </c>
       <c r="E50">
-        <v>0.005009742358107614</v>
+        <v>0.003584964930453616</v>
       </c>
       <c r="F50">
-        <v>0.03621721727741991</v>
+        <v>-0.02793817130587816</v>
       </c>
       <c r="G50">
-        <v>0.05032916216329467</v>
+        <v>0.05728466374745618</v>
       </c>
       <c r="H50">
-        <v>-6.213156175532436e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.04568326142653514</v>
+      </c>
+      <c r="I50">
+        <v>0.03286444001747672</v>
+      </c>
+      <c r="J50">
+        <v>0.01792832384695899</v>
+      </c>
+      <c r="K50">
+        <v>0.006740432255054197</v>
+      </c>
+      <c r="L50">
+        <v>0.03959574687985969</v>
+      </c>
+      <c r="M50">
+        <v>0.003035981428541077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02104966034721694</v>
+        <v>-0.03236157275017951</v>
       </c>
       <c r="C51">
-        <v>0.006494759651701609</v>
+        <v>0.001192613897220448</v>
       </c>
       <c r="D51">
-        <v>0.002782637781465921</v>
+        <v>-0.01914592235303508</v>
       </c>
       <c r="E51">
-        <v>0.01432854185765488</v>
+        <v>0.002107034919191082</v>
       </c>
       <c r="F51">
-        <v>-0.001651940929363106</v>
+        <v>0.01534151625791754</v>
       </c>
       <c r="G51">
-        <v>-0.02170990440955643</v>
+        <v>-0.01329286370039515</v>
       </c>
       <c r="H51">
-        <v>0.02846054230977484</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.01936662960527056</v>
+      </c>
+      <c r="I51">
+        <v>-0.01800348679132168</v>
+      </c>
+      <c r="J51">
+        <v>-0.06539237028310521</v>
+      </c>
+      <c r="K51">
+        <v>-0.03568896251607313</v>
+      </c>
+      <c r="L51">
+        <v>-0.07556640637023937</v>
+      </c>
+      <c r="M51">
+        <v>0.01856873466796073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2055,114 +2835,189 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1654600372658052</v>
+        <v>-0.1543707334960863</v>
       </c>
       <c r="C53">
-        <v>-0.02105240699283008</v>
+        <v>0.0507471530473823</v>
       </c>
       <c r="D53">
-        <v>-0.02184190587520025</v>
+        <v>-0.01289248568431567</v>
       </c>
       <c r="E53">
-        <v>-0.07008728252703518</v>
+        <v>-0.05789009211046327</v>
       </c>
       <c r="F53">
-        <v>-0.08658271503354581</v>
+        <v>0.03002057684587063</v>
       </c>
       <c r="G53">
-        <v>0.2658015502510336</v>
+        <v>0.2368674577916818</v>
       </c>
       <c r="H53">
-        <v>-0.04215427843631369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.06563184840923993</v>
+      </c>
+      <c r="I53">
+        <v>0.08434286801383481</v>
+      </c>
+      <c r="J53">
+        <v>0.01694894187558374</v>
+      </c>
+      <c r="K53">
+        <v>-0.08965289648772641</v>
+      </c>
+      <c r="L53">
+        <v>0.05741130362588891</v>
+      </c>
+      <c r="M53">
+        <v>0.07588781914069406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.06227239441287718</v>
+        <v>-0.05986048399406445</v>
       </c>
       <c r="C54">
-        <v>-0.05783592420539894</v>
+        <v>0.0350584662354591</v>
       </c>
       <c r="D54">
-        <v>-0.03785116509106657</v>
+        <v>-0.001679993201312955</v>
       </c>
       <c r="E54">
-        <v>0.04869191397526883</v>
+        <v>0.04926926119943897</v>
       </c>
       <c r="F54">
-        <v>0.002436991251657368</v>
+        <v>-0.09292132064568695</v>
       </c>
       <c r="G54">
-        <v>0.001184200833034984</v>
+        <v>0.02924151452764816</v>
       </c>
       <c r="H54">
-        <v>-0.0282770617553783</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.0916643849799936</v>
+      </c>
+      <c r="I54">
+        <v>-0.008538874965983285</v>
+      </c>
+      <c r="J54">
+        <v>0.05597050101687284</v>
+      </c>
+      <c r="K54">
+        <v>0.05956207617130976</v>
+      </c>
+      <c r="L54">
+        <v>0.01916303842560654</v>
+      </c>
+      <c r="M54">
+        <v>-0.05718186228924109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09525144660484197</v>
+        <v>-0.0913164945236325</v>
       </c>
       <c r="C55">
-        <v>-0.01174749168663938</v>
+        <v>0.04123772493550348</v>
       </c>
       <c r="D55">
-        <v>-0.0286323927205484</v>
+        <v>-0.02308060177112509</v>
       </c>
       <c r="E55">
-        <v>-0.00164712727648389</v>
+        <v>-0.02062636243111709</v>
       </c>
       <c r="F55">
-        <v>-0.04139435604694409</v>
+        <v>-0.02605970977573991</v>
       </c>
       <c r="G55">
-        <v>0.2375415690563534</v>
+        <v>0.1713488303639804</v>
       </c>
       <c r="H55">
-        <v>-0.01946640333771684</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.0003548311004926666</v>
+      </c>
+      <c r="I55">
+        <v>0.0402401078935321</v>
+      </c>
+      <c r="J55">
+        <v>0.01150029306549543</v>
+      </c>
+      <c r="K55">
+        <v>-0.07338244225550068</v>
+      </c>
+      <c r="L55">
+        <v>0.004140590462289152</v>
+      </c>
+      <c r="M55">
+        <v>0.06490427816181009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.170166894577076</v>
+        <v>-0.1483524277554654</v>
       </c>
       <c r="C56">
-        <v>-0.01874683070957223</v>
+        <v>0.06865265880706803</v>
       </c>
       <c r="D56">
-        <v>-0.06055722971317042</v>
+        <v>-0.02504024313757855</v>
       </c>
       <c r="E56">
-        <v>-0.07014388667828723</v>
+        <v>-0.0345792668215368</v>
       </c>
       <c r="F56">
-        <v>-0.1066835685579855</v>
+        <v>0.01160257283199844</v>
       </c>
       <c r="G56">
-        <v>0.2220114364648469</v>
+        <v>0.241946619177757</v>
       </c>
       <c r="H56">
-        <v>-0.05080003935288739</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1032796166229824</v>
+      </c>
+      <c r="I56">
+        <v>0.07291113440589589</v>
+      </c>
+      <c r="J56">
+        <v>0.01553544062180178</v>
+      </c>
+      <c r="K56">
+        <v>-0.04583595272269894</v>
+      </c>
+      <c r="L56">
+        <v>0.05727469550437773</v>
+      </c>
+      <c r="M56">
+        <v>0.05405425788785104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.05393996895733059</v>
+        <v>-0.04365704164702034</v>
       </c>
       <c r="C58">
-        <v>-0.06068230257673646</v>
+        <v>0.04091691812891055</v>
       </c>
       <c r="D58">
-        <v>-0.08083565747452012</v>
+        <v>0.007718652660254573</v>
       </c>
       <c r="E58">
-        <v>0.2567032965537447</v>
+        <v>0.1001284397439774</v>
       </c>
       <c r="F58">
-        <v>0.209366733646867</v>
+        <v>0.04565904664649536</v>
       </c>
       <c r="G58">
-        <v>-0.1276883578566742</v>
+        <v>-0.0939327457386831</v>
       </c>
       <c r="H58">
-        <v>-0.04109960087428556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.230261336673885</v>
+      </c>
+      <c r="I58">
+        <v>0.01213216302712209</v>
+      </c>
+      <c r="J58">
+        <v>-0.4006289708574743</v>
+      </c>
+      <c r="K58">
+        <v>0.3461097430211303</v>
+      </c>
+      <c r="L58">
+        <v>-0.2291452392427193</v>
+      </c>
+      <c r="M58">
+        <v>0.2284770934864033</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2408341722720528</v>
+        <v>-0.2249315557042913</v>
       </c>
       <c r="C59">
-        <v>0.4085097584566649</v>
+        <v>-0.3131537975083726</v>
       </c>
       <c r="D59">
-        <v>-0.08973483946809216</v>
+        <v>-0.01696584538867438</v>
       </c>
       <c r="E59">
-        <v>0.07930437082778691</v>
+        <v>0.004540068576271291</v>
       </c>
       <c r="F59">
-        <v>-0.06245905957108166</v>
+        <v>-0.02545926335643637</v>
       </c>
       <c r="G59">
-        <v>-0.00530194040184832</v>
+        <v>0.06035146964445848</v>
       </c>
       <c r="H59">
-        <v>-0.01695004137648469</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.09082085810272227</v>
+      </c>
+      <c r="I59">
+        <v>-0.03473187525119302</v>
+      </c>
+      <c r="J59">
+        <v>-0.01338075480557221</v>
+      </c>
+      <c r="K59">
+        <v>-0.02574036458050619</v>
+      </c>
+      <c r="L59">
+        <v>-0.0319773268234898</v>
+      </c>
+      <c r="M59">
+        <v>0.0173463898922713</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2461311102057734</v>
+        <v>-0.2450319554259076</v>
       </c>
       <c r="C60">
-        <v>-0.08065205081185373</v>
+        <v>0.1095589009421426</v>
       </c>
       <c r="D60">
-        <v>-0.08818462305951857</v>
+        <v>-0.07631972250366087</v>
       </c>
       <c r="E60">
-        <v>-0.03345538545129755</v>
+        <v>-0.07804683639154264</v>
       </c>
       <c r="F60">
-        <v>0.008737033571163523</v>
+        <v>0.05150461526169714</v>
       </c>
       <c r="G60">
-        <v>-0.05868567889875212</v>
+        <v>-0.08397661488380656</v>
       </c>
       <c r="H60">
-        <v>0.09074509501463561</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.0881816532724342</v>
+      </c>
+      <c r="I60">
+        <v>0.1632497671409598</v>
+      </c>
+      <c r="J60">
+        <v>-0.01569118767267909</v>
+      </c>
+      <c r="K60">
+        <v>-0.05974902191476732</v>
+      </c>
+      <c r="L60">
+        <v>-0.04135541046725228</v>
+      </c>
+      <c r="M60">
+        <v>0.09361666230481969</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.07950648595101587</v>
+        <v>-0.08529733120593201</v>
       </c>
       <c r="C61">
-        <v>-0.05857349545354616</v>
+        <v>0.05687876511443658</v>
       </c>
       <c r="D61">
-        <v>-0.01460692814366752</v>
+        <v>-0.0181930325422346</v>
       </c>
       <c r="E61">
-        <v>0.007124891069180598</v>
+        <v>0.02566407030844721</v>
       </c>
       <c r="F61">
-        <v>0.01298881622303795</v>
+        <v>-0.07461119933332921</v>
       </c>
       <c r="G61">
-        <v>0.01801544511609844</v>
+        <v>0.05990802866569005</v>
       </c>
       <c r="H61">
-        <v>-0.01969782334641431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.0491908109110538</v>
+      </c>
+      <c r="I61">
+        <v>-0.08273635358867794</v>
+      </c>
+      <c r="J61">
+        <v>-0.04529467521807083</v>
+      </c>
+      <c r="K61">
+        <v>0.02181094822930083</v>
+      </c>
+      <c r="L61">
+        <v>0.03782951425120984</v>
+      </c>
+      <c r="M61">
+        <v>-0.006231567806682093</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1591513817641854</v>
+        <v>-0.144390214425516</v>
       </c>
       <c r="C62">
-        <v>-0.03460578225545902</v>
+        <v>0.06949984152906678</v>
       </c>
       <c r="D62">
-        <v>-0.005128675786697207</v>
+        <v>-5.714941212898681e-05</v>
       </c>
       <c r="E62">
-        <v>-0.1155405420133157</v>
+        <v>-0.0759073089411281</v>
       </c>
       <c r="F62">
-        <v>-0.1050505986967061</v>
+        <v>-0.01297268589203874</v>
       </c>
       <c r="G62">
-        <v>0.2460980408114511</v>
+        <v>0.2137123792840586</v>
       </c>
       <c r="H62">
-        <v>-0.02292275128822538</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.05695210877214535</v>
+      </c>
+      <c r="I62">
+        <v>0.09781302922551327</v>
+      </c>
+      <c r="J62">
+        <v>0.06333184985277995</v>
+      </c>
+      <c r="K62">
+        <v>-0.09124556250390144</v>
+      </c>
+      <c r="L62">
+        <v>0.06333630868615933</v>
+      </c>
+      <c r="M62">
+        <v>0.01524956634104024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.04487633996124106</v>
+        <v>-0.04410807955535125</v>
       </c>
       <c r="C63">
-        <v>-0.04557051709853239</v>
+        <v>0.02829081885394182</v>
       </c>
       <c r="D63">
-        <v>-0.01192193667276079</v>
+        <v>0.00757616892344111</v>
       </c>
       <c r="E63">
-        <v>0.003383814959096795</v>
+        <v>0.00630020953759916</v>
       </c>
       <c r="F63">
-        <v>0.002083974136624593</v>
+        <v>-0.05470932740276493</v>
       </c>
       <c r="G63">
-        <v>0.03870398844890362</v>
+        <v>0.0147963638780188</v>
       </c>
       <c r="H63">
-        <v>0.03022974620793818</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.0749361038872738</v>
+      </c>
+      <c r="I63">
+        <v>0.0102085075452808</v>
+      </c>
+      <c r="J63">
+        <v>0.004608361733700613</v>
+      </c>
+      <c r="K63">
+        <v>0.01962371305379042</v>
+      </c>
+      <c r="L63">
+        <v>0.01618092677044448</v>
+      </c>
+      <c r="M63">
+        <v>-0.02625340176188673</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1043306413368035</v>
+        <v>-0.1029294534487113</v>
       </c>
       <c r="C64">
-        <v>-0.03709182371588902</v>
+        <v>0.04591640685324232</v>
       </c>
       <c r="D64">
-        <v>-0.03650589045875979</v>
+        <v>-0.03031721689044508</v>
       </c>
       <c r="E64">
-        <v>0.03040989767271475</v>
+        <v>0.02850956134482703</v>
       </c>
       <c r="F64">
-        <v>0.0454344097213984</v>
+        <v>-0.05777492690821751</v>
       </c>
       <c r="G64">
-        <v>-0.01191468674675068</v>
+        <v>-0.01759807452901856</v>
       </c>
       <c r="H64">
-        <v>0.01019784409543971</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.06375265807947611</v>
+      </c>
+      <c r="I64">
+        <v>-0.02437102812098747</v>
+      </c>
+      <c r="J64">
+        <v>-0.02591899902840329</v>
+      </c>
+      <c r="K64">
+        <v>-0.009589706550924202</v>
+      </c>
+      <c r="L64">
+        <v>0.1050852548908954</v>
+      </c>
+      <c r="M64">
+        <v>-0.04059436919775774</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1301636045548394</v>
+        <v>-0.124162588285008</v>
       </c>
       <c r="C65">
-        <v>-0.06034073813100824</v>
+        <v>0.03603639434546251</v>
       </c>
       <c r="D65">
-        <v>-0.05552175383435786</v>
+        <v>-0.008942925485340737</v>
       </c>
       <c r="E65">
-        <v>0.02932157126579608</v>
+        <v>-0.01676940916206035</v>
       </c>
       <c r="F65">
-        <v>0.1403530837673486</v>
+        <v>-0.0778478263796131</v>
       </c>
       <c r="G65">
-        <v>-0.04892638783604912</v>
+        <v>-0.1695395909199118</v>
       </c>
       <c r="H65">
-        <v>0.2932958836162081</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.2197209366806539</v>
+      </c>
+      <c r="I65">
+        <v>0.6186432140959782</v>
+      </c>
+      <c r="J65">
+        <v>0.1750516812021251</v>
+      </c>
+      <c r="K65">
+        <v>0.07615840373004612</v>
+      </c>
+      <c r="L65">
+        <v>-0.1403352598387977</v>
+      </c>
+      <c r="M65">
+        <v>-0.08280070486914104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1526030246103904</v>
+        <v>-0.1281241789965054</v>
       </c>
       <c r="C66">
-        <v>-0.1373072300244221</v>
+        <v>0.1218221876220247</v>
       </c>
       <c r="D66">
-        <v>-0.04033546298127557</v>
+        <v>-0.002091183130081726</v>
       </c>
       <c r="E66">
-        <v>-0.005074258078377029</v>
+        <v>0.02525372709126758</v>
       </c>
       <c r="F66">
-        <v>-0.01089358924301385</v>
+        <v>-0.09371499965201084</v>
       </c>
       <c r="G66">
-        <v>0.009058248763642173</v>
+        <v>0.03938071636972169</v>
       </c>
       <c r="H66">
-        <v>-0.0259936934927578</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.08331290332067506</v>
+      </c>
+      <c r="I66">
+        <v>-0.2086766033648772</v>
+      </c>
+      <c r="J66">
+        <v>-0.1008500536926175</v>
+      </c>
+      <c r="K66">
+        <v>0.02290444381973007</v>
+      </c>
+      <c r="L66">
+        <v>0.1385914640928185</v>
+      </c>
+      <c r="M66">
+        <v>0.04372165713250629</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.0738865800686533</v>
+        <v>-0.08577501851614383</v>
       </c>
       <c r="C67">
-        <v>-0.03729202270360119</v>
+        <v>0.06415704162648911</v>
       </c>
       <c r="D67">
-        <v>-0.005789703892992579</v>
+        <v>-0.02205070606005376</v>
       </c>
       <c r="E67">
-        <v>0.04113535825880623</v>
+        <v>0.03060284138676893</v>
       </c>
       <c r="F67">
-        <v>-0.005827530802801842</v>
+        <v>0.004271248241350436</v>
       </c>
       <c r="G67">
-        <v>-0.03146335072443677</v>
+        <v>0.003607860340302015</v>
       </c>
       <c r="H67">
-        <v>-0.01427581589436757</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.1214508265905174</v>
+      </c>
+      <c r="I67">
+        <v>-0.01360235256310323</v>
+      </c>
+      <c r="J67">
+        <v>0.05743606829456419</v>
+      </c>
+      <c r="K67">
+        <v>-0.09064540326292343</v>
+      </c>
+      <c r="L67">
+        <v>0.06524504085431053</v>
+      </c>
+      <c r="M67">
+        <v>-0.1295395379248079</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.09967293663301599</v>
+        <v>-0.1197001171124309</v>
       </c>
       <c r="C68">
-        <v>0.2510052996059914</v>
+        <v>-0.2694916233850116</v>
       </c>
       <c r="D68">
-        <v>-0.03079258708799187</v>
+        <v>0.004002033126832125</v>
       </c>
       <c r="E68">
-        <v>0.0390061900632838</v>
+        <v>0.03864356048555716</v>
       </c>
       <c r="F68">
-        <v>0.01511540857178858</v>
+        <v>0.008844364703405971</v>
       </c>
       <c r="G68">
-        <v>0.02868962232389214</v>
+        <v>0.02427602896076654</v>
       </c>
       <c r="H68">
-        <v>-0.0330255352114878</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.03021887559835022</v>
+      </c>
+      <c r="I68">
+        <v>0.05542312800650825</v>
+      </c>
+      <c r="J68">
+        <v>0.01219680922574682</v>
+      </c>
+      <c r="K68">
+        <v>0.02681180338107241</v>
+      </c>
+      <c r="L68">
+        <v>0.03111099985115158</v>
+      </c>
+      <c r="M68">
+        <v>-0.0193721073756066</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04783277427513823</v>
+        <v>-0.04518970767952022</v>
       </c>
       <c r="C69">
-        <v>-0.0190094912476094</v>
+        <v>0.02212109945737462</v>
       </c>
       <c r="D69">
-        <v>-0.009587024240554588</v>
+        <v>0.01018371752626092</v>
       </c>
       <c r="E69">
-        <v>0.01764339231219164</v>
+        <v>0.004324297331572455</v>
       </c>
       <c r="F69">
-        <v>-0.0521717183955332</v>
+        <v>-0.0249425372667151</v>
       </c>
       <c r="G69">
-        <v>0.02428970708685629</v>
+        <v>0.04317755256743299</v>
       </c>
       <c r="H69">
-        <v>0.01591268251440323</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01491871765627539</v>
+      </c>
+      <c r="I69">
+        <v>0.003144115033173356</v>
+      </c>
+      <c r="J69">
+        <v>-0.02289694429016774</v>
+      </c>
+      <c r="K69">
+        <v>0.01479548595397319</v>
+      </c>
+      <c r="L69">
+        <v>-0.04303558301458193</v>
+      </c>
+      <c r="M69">
+        <v>-0.06311888785581117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.03151066723985836</v>
+        <v>-0.04906611849254355</v>
       </c>
       <c r="C70">
-        <v>-0.01002002557599783</v>
+        <v>0.03311372249123387</v>
       </c>
       <c r="D70">
-        <v>0.009740184217016473</v>
+        <v>-0.01364783256296143</v>
       </c>
       <c r="E70">
-        <v>0.01073591384342098</v>
+        <v>-0.0319744437022907</v>
       </c>
       <c r="F70">
-        <v>0.01392224002478563</v>
+        <v>-0.02320181980910483</v>
       </c>
       <c r="G70">
-        <v>-0.09698509455602024</v>
+        <v>-0.03024199115280916</v>
       </c>
       <c r="H70">
-        <v>-0.04317718695397051</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.08798659512862522</v>
+      </c>
+      <c r="I70">
+        <v>-0.0853613671474967</v>
+      </c>
+      <c r="J70">
+        <v>0.125760122611405</v>
+      </c>
+      <c r="K70">
+        <v>0.1435728697068351</v>
+      </c>
+      <c r="L70">
+        <v>-0.005205085939492884</v>
+      </c>
+      <c r="M70">
+        <v>-0.165019471283524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1068800349167686</v>
+        <v>-0.1342995945612778</v>
       </c>
       <c r="C71">
-        <v>0.2654341694314752</v>
+        <v>-0.2782735135550533</v>
       </c>
       <c r="D71">
-        <v>-0.06433295475739348</v>
+        <v>-0.0176007165287844</v>
       </c>
       <c r="E71">
-        <v>0.03247148431010638</v>
+        <v>0.04614486703577392</v>
       </c>
       <c r="F71">
-        <v>0.0215832510255221</v>
+        <v>0.002442443705893131</v>
       </c>
       <c r="G71">
-        <v>-0.003602321896797544</v>
+        <v>0.01269162900127574</v>
       </c>
       <c r="H71">
-        <v>-0.03924673206531831</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.02860915767882536</v>
+      </c>
+      <c r="I71">
+        <v>0.008220510671179175</v>
+      </c>
+      <c r="J71">
+        <v>0.005415866501421546</v>
+      </c>
+      <c r="K71">
+        <v>-0.006232026758199171</v>
+      </c>
+      <c r="L71">
+        <v>0.005240316128433342</v>
+      </c>
+      <c r="M71">
+        <v>-0.01372508847157005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1870658918221835</v>
+        <v>-0.1433960719631097</v>
       </c>
       <c r="C72">
-        <v>-0.0128648775461569</v>
+        <v>0.03191671607898659</v>
       </c>
       <c r="D72">
-        <v>0.2217328103474139</v>
+        <v>0.165632431970365</v>
       </c>
       <c r="E72">
-        <v>0.008524535772860145</v>
+        <v>-0.07710041074571272</v>
       </c>
       <c r="F72">
-        <v>-0.0117385630655688</v>
+        <v>-0.1106392385076648</v>
       </c>
       <c r="G72">
-        <v>-0.004825445259167188</v>
+        <v>0.01227355585571275</v>
       </c>
       <c r="H72">
-        <v>0.1441640045902881</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.00518699698568221</v>
+      </c>
+      <c r="I72">
+        <v>0.1387257506592915</v>
+      </c>
+      <c r="J72">
+        <v>0.004743100008850227</v>
+      </c>
+      <c r="K72">
+        <v>-0.05840614104992425</v>
+      </c>
+      <c r="L72">
+        <v>-0.03250797722795645</v>
+      </c>
+      <c r="M72">
+        <v>-0.01778161083406421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2702905426839381</v>
+        <v>-0.239278609745079</v>
       </c>
       <c r="C73">
-        <v>-0.174145289654679</v>
+        <v>0.1565676068692976</v>
       </c>
       <c r="D73">
-        <v>-0.1543180056847243</v>
+        <v>-0.180817426137157</v>
       </c>
       <c r="E73">
-        <v>-0.1148940219647062</v>
+        <v>-0.1812429896226801</v>
       </c>
       <c r="F73">
-        <v>0.1522302321563329</v>
+        <v>0.2981298583128508</v>
       </c>
       <c r="G73">
-        <v>-0.1164835252248176</v>
+        <v>-0.285940868935558</v>
       </c>
       <c r="H73">
-        <v>0.1639980543962071</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.06054367051908351</v>
+      </c>
+      <c r="I73">
+        <v>0.05185192971488044</v>
+      </c>
+      <c r="J73">
+        <v>-0.4810735417077495</v>
+      </c>
+      <c r="K73">
+        <v>-0.3041787616531949</v>
+      </c>
+      <c r="L73">
+        <v>-0.04715618968576299</v>
+      </c>
+      <c r="M73">
+        <v>-0.05906404024303699</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.08959210577944904</v>
+        <v>-0.08820361700020529</v>
       </c>
       <c r="C74">
-        <v>-0.02184571083141755</v>
+        <v>0.06247176774300602</v>
       </c>
       <c r="D74">
-        <v>-0.01496469475529182</v>
+        <v>-0.006183137531035349</v>
       </c>
       <c r="E74">
-        <v>-0.02924828894267575</v>
+        <v>-0.02790416262758874</v>
       </c>
       <c r="F74">
-        <v>0.01691424637428829</v>
+        <v>0.02201513441371505</v>
       </c>
       <c r="G74">
-        <v>0.1638205765829058</v>
+        <v>0.1438132653989706</v>
       </c>
       <c r="H74">
-        <v>-0.004637439753718929</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.003318382356808249</v>
+      </c>
+      <c r="I74">
+        <v>0.03476042342297377</v>
+      </c>
+      <c r="J74">
+        <v>-0.04752532292938633</v>
+      </c>
+      <c r="K74">
+        <v>-0.06115843956233726</v>
+      </c>
+      <c r="L74">
+        <v>0.02017664394302805</v>
+      </c>
+      <c r="M74">
+        <v>-0.02339144911208963</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.1022168549508181</v>
+        <v>-0.08930286658649975</v>
       </c>
       <c r="C75">
-        <v>-0.01851406445923456</v>
+        <v>0.04751120587575539</v>
       </c>
       <c r="D75">
-        <v>-0.0187050546468057</v>
+        <v>0.004625706741443941</v>
       </c>
       <c r="E75">
-        <v>-0.03158793215350088</v>
+        <v>-0.02360867458846211</v>
       </c>
       <c r="F75">
-        <v>-0.09360335693554121</v>
+        <v>0.01184892178963148</v>
       </c>
       <c r="G75">
-        <v>0.09238203804062201</v>
+        <v>0.1257617347904286</v>
       </c>
       <c r="H75">
-        <v>-0.04291422264735768</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.07711280099415646</v>
+      </c>
+      <c r="I75">
+        <v>0.02475168049745153</v>
+      </c>
+      <c r="J75">
+        <v>0.005733373401728636</v>
+      </c>
+      <c r="K75">
+        <v>0.02351511557428104</v>
+      </c>
+      <c r="L75">
+        <v>-0.06561409369037106</v>
+      </c>
+      <c r="M75">
+        <v>0.01570243859304687</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1335056041002685</v>
+        <v>-0.1078950973304851</v>
       </c>
       <c r="C76">
-        <v>-0.02863511852986599</v>
+        <v>0.06983327068763742</v>
       </c>
       <c r="D76">
-        <v>-0.02375782276504273</v>
+        <v>-0.02388277679425671</v>
       </c>
       <c r="E76">
-        <v>-0.03198669150626757</v>
+        <v>-0.03793828960979852</v>
       </c>
       <c r="F76">
-        <v>-0.07389003663386189</v>
+        <v>0.02335799266756849</v>
       </c>
       <c r="G76">
-        <v>0.2348407966098621</v>
+        <v>0.2265537063900328</v>
       </c>
       <c r="H76">
-        <v>-0.01974253284238877</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.04824194223494409</v>
+      </c>
+      <c r="I76">
+        <v>0.06837646020762518</v>
+      </c>
+      <c r="J76">
+        <v>0.0008849737871301678</v>
+      </c>
+      <c r="K76">
+        <v>-0.08237393074891246</v>
+      </c>
+      <c r="L76">
+        <v>0.0688461929748812</v>
+      </c>
+      <c r="M76">
+        <v>0.09923393548296168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.1005100093557895</v>
+        <v>-0.07593195819545834</v>
       </c>
       <c r="C77">
-        <v>-0.06044720578626907</v>
+        <v>0.02166204273469005</v>
       </c>
       <c r="D77">
-        <v>0.006375918710018719</v>
+        <v>-0.01369701119271588</v>
       </c>
       <c r="E77">
-        <v>0.3768768705560806</v>
+        <v>0.1562488413753257</v>
       </c>
       <c r="F77">
-        <v>-0.4664985899432937</v>
+        <v>-0.6270486015673905</v>
       </c>
       <c r="G77">
-        <v>-0.2067255694278706</v>
+        <v>-0.3203472611274731</v>
       </c>
       <c r="H77">
-        <v>0.50632121281106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.5009637951106305</v>
+      </c>
+      <c r="I77">
+        <v>0.06040132644734399</v>
+      </c>
+      <c r="J77">
+        <v>-0.1011505826227887</v>
+      </c>
+      <c r="K77">
+        <v>-0.1560533779373239</v>
+      </c>
+      <c r="L77">
+        <v>0.09404317961149951</v>
+      </c>
+      <c r="M77">
+        <v>0.1381255125830482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1278430779417766</v>
+        <v>-0.1659609170099761</v>
       </c>
       <c r="C78">
-        <v>-0.1092369555112488</v>
+        <v>0.1129359597871258</v>
       </c>
       <c r="D78">
-        <v>-0.02592777047932938</v>
+        <v>-0.01267738547493067</v>
       </c>
       <c r="E78">
-        <v>0.1009759186004388</v>
+        <v>0.1947679085417372</v>
       </c>
       <c r="F78">
-        <v>0.08953335586307333</v>
+        <v>-0.009635451592333826</v>
       </c>
       <c r="G78">
-        <v>-0.02416917812515771</v>
+        <v>-0.06268905596852919</v>
       </c>
       <c r="H78">
-        <v>-0.04710494420610403</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.137782067646143</v>
+      </c>
+      <c r="I78">
+        <v>-0.1553848673867889</v>
+      </c>
+      <c r="J78">
+        <v>0.2630195937140237</v>
+      </c>
+      <c r="K78">
+        <v>-0.2126046951225869</v>
+      </c>
+      <c r="L78">
+        <v>-0.3656894671886134</v>
+      </c>
+      <c r="M78">
+        <v>0.6022036087178374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1466716637866241</v>
+        <v>-0.1369008921736919</v>
       </c>
       <c r="C79">
-        <v>-0.04497745082381113</v>
+        <v>0.06813265707247126</v>
       </c>
       <c r="D79">
-        <v>-0.01532996793949801</v>
+        <v>-0.007401958002680671</v>
       </c>
       <c r="E79">
-        <v>-0.05613572297757629</v>
+        <v>-0.02020012877619222</v>
       </c>
       <c r="F79">
-        <v>-0.1070220042109252</v>
+        <v>-0.01596884223164874</v>
       </c>
       <c r="G79">
-        <v>0.1556973433976188</v>
+        <v>0.1822890557273367</v>
       </c>
       <c r="H79">
-        <v>-0.04701961429133879</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.07004738443069523</v>
+      </c>
+      <c r="I79">
+        <v>0.07420565240354535</v>
+      </c>
+      <c r="J79">
+        <v>0.02798090770382845</v>
+      </c>
+      <c r="K79">
+        <v>-0.02822103314472935</v>
+      </c>
+      <c r="L79">
+        <v>-0.001339943643642048</v>
+      </c>
+      <c r="M79">
+        <v>-0.01036471346810138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02107624843684337</v>
+        <v>-0.03867731685804519</v>
       </c>
       <c r="C80">
-        <v>-0.004577532554563962</v>
+        <v>0.01608781288047784</v>
       </c>
       <c r="D80">
-        <v>0.0006607787894998047</v>
+        <v>-0.03064460146041593</v>
       </c>
       <c r="E80">
-        <v>0.01552102181564235</v>
+        <v>-0.05935867688185479</v>
       </c>
       <c r="F80">
-        <v>0.04658927978881859</v>
+        <v>-0.02489040208797134</v>
       </c>
       <c r="G80">
-        <v>0.009464554560172653</v>
+        <v>-0.01861969561782848</v>
       </c>
       <c r="H80">
-        <v>0.0327522069461302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.1089283860802162</v>
+      </c>
+      <c r="I80">
+        <v>-0.05052789907753804</v>
+      </c>
+      <c r="J80">
+        <v>-0.008928726512732873</v>
+      </c>
+      <c r="K80">
+        <v>-0.003785181575342846</v>
+      </c>
+      <c r="L80">
+        <v>-0.03141547267244123</v>
+      </c>
+      <c r="M80">
+        <v>-0.1027388392390979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1207108851331918</v>
+        <v>-0.1226160242503956</v>
       </c>
       <c r="C81">
-        <v>-0.03672801243439092</v>
+        <v>0.04890088915988276</v>
       </c>
       <c r="D81">
-        <v>-0.03031842512470332</v>
+        <v>-0.009958969817128743</v>
       </c>
       <c r="E81">
-        <v>-0.03787436148669029</v>
+        <v>-0.01540101525224936</v>
       </c>
       <c r="F81">
-        <v>-0.05656415194086813</v>
+        <v>-0.01013436325128348</v>
       </c>
       <c r="G81">
-        <v>0.09249860357073947</v>
+        <v>0.1673757630397439</v>
       </c>
       <c r="H81">
-        <v>-0.006012441937463103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.02997867343846251</v>
+      </c>
+      <c r="I81">
+        <v>0.00632371883122331</v>
+      </c>
+      <c r="J81">
+        <v>-0.03899773148946189</v>
+      </c>
+      <c r="K81">
+        <v>0.0245125048587003</v>
+      </c>
+      <c r="L81">
+        <v>0.00773327022562588</v>
+      </c>
+      <c r="M81">
+        <v>-0.06653287219180318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1154351979375773</v>
+        <v>-0.1175467063153449</v>
       </c>
       <c r="C82">
-        <v>-0.04049843040589031</v>
+        <v>0.0537058335244041</v>
       </c>
       <c r="D82">
-        <v>-0.04810327631623034</v>
+        <v>-0.01132411422872966</v>
       </c>
       <c r="E82">
-        <v>-0.08118284120952514</v>
+        <v>-0.04285154221295467</v>
       </c>
       <c r="F82">
-        <v>-0.156388353654509</v>
+        <v>0.02014688127371904</v>
       </c>
       <c r="G82">
-        <v>0.2491903727497908</v>
+        <v>0.2625294907089428</v>
       </c>
       <c r="H82">
-        <v>-0.07695687445879289</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.08240597418774562</v>
+      </c>
+      <c r="I82">
+        <v>-0.02116922377845814</v>
+      </c>
+      <c r="J82">
+        <v>0.007824498648222178</v>
+      </c>
+      <c r="K82">
+        <v>-0.02199603940746509</v>
+      </c>
+      <c r="L82">
+        <v>0.04759876448472389</v>
+      </c>
+      <c r="M82">
+        <v>-0.0608499060419298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.04018845739738181</v>
+        <v>-0.07359504546599133</v>
       </c>
       <c r="C83">
-        <v>-0.02809664645602869</v>
+        <v>0.05554441924436111</v>
       </c>
       <c r="D83">
-        <v>-0.01580015961717778</v>
+        <v>-0.02643178099188809</v>
       </c>
       <c r="E83">
-        <v>-0.03830270607973257</v>
+        <v>-0.008920522110512341</v>
       </c>
       <c r="F83">
-        <v>0.01471917501765802</v>
+        <v>-0.001493293064904379</v>
       </c>
       <c r="G83">
-        <v>-0.1117712554049753</v>
+        <v>-0.03161647299280992</v>
       </c>
       <c r="H83">
-        <v>-0.05351902336154889</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.01577187696952671</v>
+      </c>
+      <c r="I83">
+        <v>-0.07680745973672026</v>
+      </c>
+      <c r="J83">
+        <v>0.06477472683046862</v>
+      </c>
+      <c r="K83">
+        <v>0.08143241265124451</v>
+      </c>
+      <c r="L83">
+        <v>-0.04405325781722367</v>
+      </c>
+      <c r="M83">
+        <v>-0.08104061534938589</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05503407994834043</v>
+        <v>-0.04057657457312881</v>
       </c>
       <c r="C84">
-        <v>-0.02685605880750163</v>
+        <v>-0.02127022632350394</v>
       </c>
       <c r="D84">
-        <v>0.01496968509482005</v>
+        <v>0.02996621844072586</v>
       </c>
       <c r="E84">
-        <v>-0.01781828016742549</v>
+        <v>0.02053656170926504</v>
       </c>
       <c r="F84">
-        <v>0.1108137628177307</v>
+        <v>0.0687279684211512</v>
       </c>
       <c r="G84">
-        <v>0.03923698692356756</v>
+        <v>-0.1448667550566179</v>
       </c>
       <c r="H84">
-        <v>-0.08890896155076083</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.1995503004442412</v>
+      </c>
+      <c r="I84">
+        <v>-0.2186312556722298</v>
+      </c>
+      <c r="J84">
+        <v>0.2630692868246749</v>
+      </c>
+      <c r="K84">
+        <v>-0.3800507038132895</v>
+      </c>
+      <c r="L84">
+        <v>0.04008292505770977</v>
+      </c>
+      <c r="M84">
+        <v>0.006969187373082635</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.07819389867094879</v>
+        <v>-0.1074716506092457</v>
       </c>
       <c r="C85">
-        <v>-0.04663191258431881</v>
+        <v>0.05262199977255687</v>
       </c>
       <c r="D85">
-        <v>-0.05393568437613733</v>
+        <v>-0.04660335135325921</v>
       </c>
       <c r="E85">
-        <v>-0.02252764783110816</v>
+        <v>-0.00773356949386312</v>
       </c>
       <c r="F85">
-        <v>-0.06723354804904989</v>
+        <v>-0.009452569346886847</v>
       </c>
       <c r="G85">
-        <v>0.1695997911988366</v>
+        <v>0.1839177143608405</v>
       </c>
       <c r="H85">
-        <v>0.001645133402105519</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.04188373412247545</v>
+      </c>
+      <c r="I85">
+        <v>0.06051330400402435</v>
+      </c>
+      <c r="J85">
+        <v>0.02357286240465329</v>
+      </c>
+      <c r="K85">
+        <v>-0.04272795929584875</v>
+      </c>
+      <c r="L85">
+        <v>-0.00916789994875679</v>
+      </c>
+      <c r="M85">
+        <v>-0.01162848802624116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.0456935082693579</v>
+        <v>-0.06729328623863855</v>
       </c>
       <c r="C86">
-        <v>-0.05914264660326754</v>
+        <v>0.02277030974614826</v>
       </c>
       <c r="D86">
-        <v>-0.002729283928370144</v>
+        <v>-0.006951777084871449</v>
       </c>
       <c r="E86">
-        <v>0.04848202457208917</v>
+        <v>0.06351880044037</v>
       </c>
       <c r="F86">
-        <v>0.04965521038339843</v>
+        <v>0.01571044186950969</v>
       </c>
       <c r="G86">
-        <v>-0.03951013678598236</v>
+        <v>-0.08222792363689643</v>
       </c>
       <c r="H86">
-        <v>0.06838472588342087</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.08498587444351377</v>
+      </c>
+      <c r="I86">
+        <v>-0.1972866323862217</v>
+      </c>
+      <c r="J86">
+        <v>0.2973997529714873</v>
+      </c>
+      <c r="K86">
+        <v>-0.2527030986566863</v>
+      </c>
+      <c r="L86">
+        <v>-0.157152736422774</v>
+      </c>
+      <c r="M86">
+        <v>-0.2989243699022418</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.1032648991492886</v>
+        <v>-0.1193635876595214</v>
       </c>
       <c r="C87">
-        <v>-0.08165546520746725</v>
+        <v>0.07327501825841826</v>
       </c>
       <c r="D87">
-        <v>-0.01572178696879585</v>
+        <v>0.002439203682473887</v>
       </c>
       <c r="E87">
-        <v>0.183390537442167</v>
+        <v>0.08961710065744091</v>
       </c>
       <c r="F87">
-        <v>-0.07176403356860557</v>
+        <v>-0.1868439907762548</v>
       </c>
       <c r="G87">
-        <v>-0.05456940587782051</v>
+        <v>-0.1487072033133723</v>
       </c>
       <c r="H87">
-        <v>0.1241932169521369</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.03325358519204887</v>
+      </c>
+      <c r="I87">
+        <v>-0.04206606088265279</v>
+      </c>
+      <c r="J87">
+        <v>0.0002538096970979891</v>
+      </c>
+      <c r="K87">
+        <v>-0.01738276099542986</v>
+      </c>
+      <c r="L87">
+        <v>0.09171038240856831</v>
+      </c>
+      <c r="M87">
+        <v>-0.06391721603137183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.04357686469918189</v>
+        <v>-0.05891756652449428</v>
       </c>
       <c r="C88">
-        <v>-0.03472646226408255</v>
+        <v>0.05165408585005465</v>
       </c>
       <c r="D88">
-        <v>-0.01235880648764191</v>
+        <v>-0.02480759387448376</v>
       </c>
       <c r="E88">
-        <v>0.002071760517182651</v>
+        <v>-0.01582354955743954</v>
       </c>
       <c r="F88">
-        <v>0.007526640755303561</v>
+        <v>-0.03153520020373618</v>
       </c>
       <c r="G88">
-        <v>-0.02279400149172926</v>
+        <v>0.02111926956868488</v>
       </c>
       <c r="H88">
-        <v>-0.003059377655343882</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.04593827207797135</v>
+      </c>
+      <c r="I88">
+        <v>-0.04205509786280441</v>
+      </c>
+      <c r="J88">
+        <v>-0.01968994324316769</v>
+      </c>
+      <c r="K88">
+        <v>0.01902547183848527</v>
+      </c>
+      <c r="L88">
+        <v>-0.002040292389921481</v>
+      </c>
+      <c r="M88">
+        <v>-0.02012711261173996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1619436326306891</v>
+        <v>-0.2181114857802871</v>
       </c>
       <c r="C89">
-        <v>0.3006335580181071</v>
+        <v>-0.3540985815462266</v>
       </c>
       <c r="D89">
-        <v>-0.1103666425176725</v>
+        <v>-0.06954615867741186</v>
       </c>
       <c r="E89">
-        <v>0.08974735608898463</v>
+        <v>0.06658404861303945</v>
       </c>
       <c r="F89">
-        <v>0.005566734486568555</v>
+        <v>0.01278330364734001</v>
       </c>
       <c r="G89">
-        <v>-0.04050591969032111</v>
+        <v>0.01152225037066585</v>
       </c>
       <c r="H89">
-        <v>-0.03666785413676459</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01609267349374745</v>
+      </c>
+      <c r="I89">
+        <v>-0.06222802936265481</v>
+      </c>
+      <c r="J89">
+        <v>-0.08706109617628928</v>
+      </c>
+      <c r="K89">
+        <v>0.08280498613524039</v>
+      </c>
+      <c r="L89">
+        <v>-0.04896878283383749</v>
+      </c>
+      <c r="M89">
+        <v>0.009552599722137211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1278431984173769</v>
+        <v>-0.1475705874132298</v>
       </c>
       <c r="C90">
-        <v>0.2650877397336606</v>
+        <v>-0.2661412883370154</v>
       </c>
       <c r="D90">
-        <v>-0.04676660425536744</v>
+        <v>-0.01528804288273685</v>
       </c>
       <c r="E90">
-        <v>0.08192711264265917</v>
+        <v>0.03319572726191944</v>
       </c>
       <c r="F90">
-        <v>0.0353353587057505</v>
+        <v>-0.02257818218777076</v>
       </c>
       <c r="G90">
-        <v>-0.03409047387333063</v>
+        <v>-0.02938783791429365</v>
       </c>
       <c r="H90">
-        <v>-0.005945959753212538</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.03163840182845754</v>
+      </c>
+      <c r="I90">
+        <v>-0.01103556289749687</v>
+      </c>
+      <c r="J90">
+        <v>-0.04182170672516211</v>
+      </c>
+      <c r="K90">
+        <v>-0.01472166333369922</v>
+      </c>
+      <c r="L90">
+        <v>0.03719731339070938</v>
+      </c>
+      <c r="M90">
+        <v>0.001883646833768707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.0841233942399133</v>
+        <v>-0.07486203708082506</v>
       </c>
       <c r="C91">
-        <v>-0.0257095228326273</v>
+        <v>0.04949233902841944</v>
       </c>
       <c r="D91">
-        <v>-0.01018012472390717</v>
+        <v>-0.003809154683606938</v>
       </c>
       <c r="E91">
-        <v>-0.01630049160553708</v>
+        <v>-0.01152610592925459</v>
       </c>
       <c r="F91">
-        <v>-0.03795370676959671</v>
+        <v>0.02067297082755132</v>
       </c>
       <c r="G91">
-        <v>0.103125271865551</v>
+        <v>0.09504752346645037</v>
       </c>
       <c r="H91">
-        <v>-0.02726940591569777</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.04892434546040088</v>
+      </c>
+      <c r="I91">
+        <v>0.02944910758648394</v>
+      </c>
+      <c r="J91">
+        <v>-0.02562172773183337</v>
+      </c>
+      <c r="K91">
+        <v>-0.006942450514687734</v>
+      </c>
+      <c r="L91">
+        <v>-0.03407995894270609</v>
+      </c>
+      <c r="M91">
+        <v>0.04633539169091373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1404004374472473</v>
+        <v>-0.1619653773612812</v>
       </c>
       <c r="C92">
-        <v>0.3145151465001098</v>
+        <v>-0.307178435679574</v>
       </c>
       <c r="D92">
-        <v>-0.08386856702428712</v>
+        <v>-0.0243729166749926</v>
       </c>
       <c r="E92">
-        <v>0.02123059251523423</v>
+        <v>0.04673371610294098</v>
       </c>
       <c r="F92">
-        <v>0.06404147509830263</v>
+        <v>0.02111521838171679</v>
       </c>
       <c r="G92">
-        <v>0.001064009640946168</v>
+        <v>0.04085968840367103</v>
       </c>
       <c r="H92">
-        <v>-0.07107238973717263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.02857397183483141</v>
+      </c>
+      <c r="I92">
+        <v>-0.02869274595131437</v>
+      </c>
+      <c r="J92">
+        <v>-0.03291105784437814</v>
+      </c>
+      <c r="K92">
+        <v>0.01676737100872991</v>
+      </c>
+      <c r="L92">
+        <v>0.0005023724401894179</v>
+      </c>
+      <c r="M92">
+        <v>0.02579055328972138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1299519130208986</v>
+        <v>-0.1607385438048213</v>
       </c>
       <c r="C93">
-        <v>0.2521156799885668</v>
+        <v>-0.2899735326635112</v>
       </c>
       <c r="D93">
-        <v>-0.04611147315623265</v>
+        <v>-0.01214876137226485</v>
       </c>
       <c r="E93">
-        <v>0.03688214357829237</v>
+        <v>0.01415160653986896</v>
       </c>
       <c r="F93">
-        <v>0.02956970534868154</v>
+        <v>0.009621628073694256</v>
       </c>
       <c r="G93">
-        <v>-0.05671322704854914</v>
+        <v>-0.0162795537832965</v>
       </c>
       <c r="H93">
-        <v>-0.006782413429231464</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.01276645220884862</v>
+      </c>
+      <c r="I93">
+        <v>-0.007739467237958726</v>
+      </c>
+      <c r="J93">
+        <v>0.02503504790640096</v>
+      </c>
+      <c r="K93">
+        <v>0.009516756482361454</v>
+      </c>
+      <c r="L93">
+        <v>0.02922588536077496</v>
+      </c>
+      <c r="M93">
+        <v>-0.03669365016900318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.08798991971274249</v>
+        <v>-0.103365582461724</v>
       </c>
       <c r="C94">
-        <v>-0.06591510704604192</v>
+        <v>0.07702652832038621</v>
       </c>
       <c r="D94">
-        <v>-0.02609038266430684</v>
+        <v>-0.02103269755027857</v>
       </c>
       <c r="E94">
-        <v>-0.007186141282157572</v>
+        <v>0.003661039722135832</v>
       </c>
       <c r="F94">
-        <v>-0.06275492260697339</v>
+        <v>0.05285810110497477</v>
       </c>
       <c r="G94">
-        <v>0.1343709053469313</v>
+        <v>0.1252597048855359</v>
       </c>
       <c r="H94">
-        <v>-0.0707064262962076</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.04110087673900921</v>
+      </c>
+      <c r="I94">
+        <v>0.03103020694391192</v>
+      </c>
+      <c r="J94">
+        <v>-0.01718281190151695</v>
+      </c>
+      <c r="K94">
+        <v>0.02190409740404657</v>
+      </c>
+      <c r="L94">
+        <v>-0.05470794948844032</v>
+      </c>
+      <c r="M94">
+        <v>-0.0004811201048814621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1037092820675083</v>
+        <v>-0.1314620651974375</v>
       </c>
       <c r="C95">
-        <v>-0.1162492208103151</v>
+        <v>0.07670660086440156</v>
       </c>
       <c r="D95">
-        <v>-0.08256763468186606</v>
+        <v>-0.04002935698101104</v>
       </c>
       <c r="E95">
-        <v>-0.009459969950873804</v>
+        <v>0.06329616797059767</v>
       </c>
       <c r="F95">
-        <v>0.04408673354143173</v>
+        <v>-0.01361315086495907</v>
       </c>
       <c r="G95">
-        <v>-0.01992176240753353</v>
+        <v>-0.1583440177340882</v>
       </c>
       <c r="H95">
-        <v>0.05939169836565141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1132525986699988</v>
+      </c>
+      <c r="I95">
+        <v>-0.05232316018354376</v>
+      </c>
+      <c r="J95">
+        <v>-0.02163239631931484</v>
+      </c>
+      <c r="K95">
+        <v>0.02391365561862603</v>
+      </c>
+      <c r="L95">
+        <v>-0.1171584530784886</v>
+      </c>
+      <c r="M95">
+        <v>-0.2665025174936331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.3127253564978075</v>
+        <v>-0.176614758715909</v>
       </c>
       <c r="C97">
-        <v>0.06727223212731134</v>
+        <v>-0.009581346426802223</v>
       </c>
       <c r="D97">
-        <v>0.8723874297218706</v>
+        <v>0.8839058293186405</v>
       </c>
       <c r="E97">
-        <v>-0.08896382147298967</v>
+        <v>-0.3127809674662703</v>
       </c>
       <c r="F97">
-        <v>0.09057962926097921</v>
+        <v>-0.0525882650811572</v>
       </c>
       <c r="G97">
-        <v>-0.04641262472744399</v>
+        <v>-0.07245138674123242</v>
       </c>
       <c r="H97">
-        <v>0.05423298950487754</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.04950761912598309</v>
+      </c>
+      <c r="I97">
+        <v>-0.06766048162690283</v>
+      </c>
+      <c r="J97">
+        <v>-0.06861967397375375</v>
+      </c>
+      <c r="K97">
+        <v>-0.008353488397959671</v>
+      </c>
+      <c r="L97">
+        <v>-0.02348198079231784</v>
+      </c>
+      <c r="M97">
+        <v>0.0185493603734793</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2381589099609802</v>
+        <v>-0.2554648348206796</v>
       </c>
       <c r="C98">
-        <v>-0.09955945125569687</v>
+        <v>0.1230580686913598</v>
       </c>
       <c r="D98">
-        <v>-0.1253555515443844</v>
+        <v>-0.09934100816123052</v>
       </c>
       <c r="E98">
-        <v>-0.4375207476577184</v>
+        <v>-0.2507578979267041</v>
       </c>
       <c r="F98">
-        <v>0.08241963559973522</v>
+        <v>0.2886606170646118</v>
       </c>
       <c r="G98">
-        <v>-0.4971232909376618</v>
+        <v>-0.2971701448192321</v>
       </c>
       <c r="H98">
-        <v>-0.2531025835562647</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.2171302767556456</v>
+      </c>
+      <c r="I98">
+        <v>-0.1366294922272243</v>
+      </c>
+      <c r="J98">
+        <v>0.3473707748181446</v>
+      </c>
+      <c r="K98">
+        <v>0.4325598056260239</v>
+      </c>
+      <c r="L98">
+        <v>0.2983304336713851</v>
+      </c>
+      <c r="M98">
+        <v>0.2508791888287252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.07410621650139133</v>
+        <v>-0.07923441000149102</v>
       </c>
       <c r="C99">
-        <v>-0.06671981415980816</v>
+        <v>0.06423538938830681</v>
       </c>
       <c r="D99">
-        <v>0.06219981517189648</v>
+        <v>0.01603266663599554</v>
       </c>
       <c r="E99">
-        <v>0.08780608511055954</v>
+        <v>0.04649381812362843</v>
       </c>
       <c r="F99">
-        <v>-0.6542429486306305</v>
+        <v>-0.024951384165756</v>
       </c>
       <c r="G99">
-        <v>-0.2943511397723925</v>
+        <v>0.07667072639390179</v>
       </c>
       <c r="H99">
-        <v>-0.4584321455258217</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.3925936542861201</v>
+      </c>
+      <c r="I99">
+        <v>-0.1792587517147864</v>
+      </c>
+      <c r="J99">
+        <v>0.06903265123990078</v>
+      </c>
+      <c r="K99">
+        <v>0.3249090942181921</v>
+      </c>
+      <c r="L99">
+        <v>-0.5738770064151761</v>
+      </c>
+      <c r="M99">
+        <v>-0.2225576345134567</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.04713973553556693</v>
+        <v>-0.0458889482528387</v>
       </c>
       <c r="C101">
-        <v>-0.007143693798963912</v>
+        <v>0.02112846286564309</v>
       </c>
       <c r="D101">
-        <v>-0.01219390305201929</v>
+        <v>-0.01384299298182423</v>
       </c>
       <c r="E101">
-        <v>0.02599408602822303</v>
+        <v>0.02292846244103014</v>
       </c>
       <c r="F101">
-        <v>0.03642989692195498</v>
+        <v>-0.03633779411632316</v>
       </c>
       <c r="G101">
-        <v>0.01449045088947167</v>
+        <v>0.04846826393594721</v>
       </c>
       <c r="H101">
-        <v>0.0127943047705319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.06058791781044535</v>
+      </c>
+      <c r="I101">
+        <v>-0.002996799345248956</v>
+      </c>
+      <c r="J101">
+        <v>0.0246588281946775</v>
+      </c>
+      <c r="K101">
+        <v>0.00432712963944578</v>
+      </c>
+      <c r="L101">
+        <v>0.02320574503394702</v>
+      </c>
+      <c r="M101">
+        <v>-0.02937946534787828</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
